--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Clec11a-Itga10.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.7478980228264</v>
+        <v>14.768619</v>
       </c>
       <c r="H2">
-        <v>14.7478980228264</v>
+        <v>44.305857</v>
       </c>
       <c r="I2">
-        <v>0.9740407664220339</v>
+        <v>0.9736679609684162</v>
       </c>
       <c r="J2">
-        <v>0.9740407664220339</v>
+        <v>0.9736679609684162</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.481477522887525</v>
+        <v>0.7530926666666667</v>
       </c>
       <c r="N2">
-        <v>0.481477522887525</v>
+        <v>2.259278</v>
       </c>
       <c r="O2">
-        <v>0.1451987407427464</v>
+        <v>0.1998288175720169</v>
       </c>
       <c r="P2">
-        <v>0.1451987407427464</v>
+        <v>0.1998288175720169</v>
       </c>
       <c r="Q2">
-        <v>7.100781407828283</v>
+        <v>11.122138665694</v>
       </c>
       <c r="R2">
-        <v>7.100781407828283</v>
+        <v>100.099247991246</v>
       </c>
       <c r="S2">
-        <v>0.1414294927165788</v>
+        <v>0.1945669173480753</v>
       </c>
       <c r="T2">
-        <v>0.1414294927165788</v>
+        <v>0.1945669173480753</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.7478980228264</v>
+        <v>14.768619</v>
       </c>
       <c r="H3">
-        <v>14.7478980228264</v>
+        <v>44.305857</v>
       </c>
       <c r="I3">
-        <v>0.9740407664220339</v>
+        <v>0.9736679609684162</v>
       </c>
       <c r="J3">
-        <v>0.9740407664220339</v>
+        <v>0.9736679609684162</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.55491555899158</v>
+        <v>1.557543666666667</v>
       </c>
       <c r="N3">
-        <v>1.55491555899158</v>
+        <v>4.672631</v>
       </c>
       <c r="O3">
-        <v>0.4689144776123269</v>
+        <v>0.4132852741806677</v>
       </c>
       <c r="P3">
-        <v>0.4689144776123269</v>
+        <v>0.4132852741806678</v>
       </c>
       <c r="Q3">
-        <v>22.93173609811393</v>
+        <v>23.002768988863</v>
       </c>
       <c r="R3">
-        <v>22.93173609811393</v>
+        <v>207.024920899767</v>
       </c>
       <c r="S3">
-        <v>0.4567418171598985</v>
+        <v>0.4024026302097636</v>
       </c>
       <c r="T3">
-        <v>0.4567418171598985</v>
+        <v>0.4024026302097636</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.7478980228264</v>
+        <v>14.768619</v>
       </c>
       <c r="H4">
-        <v>14.7478980228264</v>
+        <v>44.305857</v>
       </c>
       <c r="I4">
-        <v>0.9740407664220339</v>
+        <v>0.9736679609684162</v>
       </c>
       <c r="J4">
-        <v>0.9740407664220339</v>
+        <v>0.9736679609684162</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.27959657770462</v>
+        <v>1.458052666666666</v>
       </c>
       <c r="N4">
-        <v>1.27959657770462</v>
+        <v>4.374158</v>
       </c>
       <c r="O4">
-        <v>0.3858867816449268</v>
+        <v>0.3868859082473153</v>
       </c>
       <c r="P4">
-        <v>0.3858867816449268</v>
+        <v>0.3868859082473153</v>
       </c>
       <c r="Q4">
-        <v>18.87135983834539</v>
+        <v>21.533424315934</v>
       </c>
       <c r="R4">
-        <v>18.87135983834539</v>
+        <v>193.800818843406</v>
       </c>
       <c r="S4">
-        <v>0.3758694565455566</v>
+        <v>0.3766984134105772</v>
       </c>
       <c r="T4">
-        <v>0.3758694565455566</v>
+        <v>0.3766984134105773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.393047337191939</v>
+        <v>0.399405</v>
       </c>
       <c r="H5">
-        <v>0.393047337191939</v>
+        <v>1.198215</v>
       </c>
       <c r="I5">
-        <v>0.02595923357796616</v>
+        <v>0.02633203903158381</v>
       </c>
       <c r="J5">
-        <v>0.02595923357796616</v>
+        <v>0.02633203903158381</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.481477522887525</v>
+        <v>0.7530926666666667</v>
       </c>
       <c r="N5">
-        <v>0.481477522887525</v>
+        <v>2.259278</v>
       </c>
       <c r="O5">
-        <v>0.1451987407427464</v>
+        <v>0.1998288175720169</v>
       </c>
       <c r="P5">
-        <v>0.1451987407427464</v>
+        <v>0.1998288175720169</v>
       </c>
       <c r="Q5">
-        <v>0.1892434582887126</v>
+        <v>0.30078897653</v>
       </c>
       <c r="R5">
-        <v>0.1892434582887126</v>
+        <v>2.70710078877</v>
       </c>
       <c r="S5">
-        <v>0.003769248026167505</v>
+        <v>0.005261900223941589</v>
       </c>
       <c r="T5">
-        <v>0.003769248026167505</v>
+        <v>0.00526190022394159</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.393047337191939</v>
+        <v>0.399405</v>
       </c>
       <c r="H6">
-        <v>0.393047337191939</v>
+        <v>1.198215</v>
       </c>
       <c r="I6">
-        <v>0.02595923357796616</v>
+        <v>0.02633203903158381</v>
       </c>
       <c r="J6">
-        <v>0.02595923357796616</v>
+        <v>0.02633203903158381</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.55491555899158</v>
+        <v>1.557543666666667</v>
       </c>
       <c r="N6">
-        <v>1.55491555899158</v>
+        <v>4.672631</v>
       </c>
       <c r="O6">
-        <v>0.4689144776123269</v>
+        <v>0.4132852741806677</v>
       </c>
       <c r="P6">
-        <v>0.4689144776123269</v>
+        <v>0.4132852741806678</v>
       </c>
       <c r="Q6">
-        <v>0.6111554200199558</v>
+        <v>0.622090728185</v>
       </c>
       <c r="R6">
-        <v>0.6111554200199558</v>
+        <v>5.598816553665</v>
       </c>
       <c r="S6">
-        <v>0.01217266045242838</v>
+        <v>0.01088264397090416</v>
       </c>
       <c r="T6">
-        <v>0.01217266045242838</v>
+        <v>0.01088264397090416</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.393047337191939</v>
+        <v>0.399405</v>
       </c>
       <c r="H7">
-        <v>0.393047337191939</v>
+        <v>1.198215</v>
       </c>
       <c r="I7">
-        <v>0.02595923357796616</v>
+        <v>0.02633203903158381</v>
       </c>
       <c r="J7">
-        <v>0.02595923357796616</v>
+        <v>0.02633203903158381</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.27959657770462</v>
+        <v>1.458052666666666</v>
       </c>
       <c r="N7">
-        <v>1.27959657770462</v>
+        <v>4.374158</v>
       </c>
       <c r="O7">
-        <v>0.3858867816449268</v>
+        <v>0.3868859082473153</v>
       </c>
       <c r="P7">
-        <v>0.3858867816449268</v>
+        <v>0.3868859082473153</v>
       </c>
       <c r="Q7">
-        <v>0.502942027546719</v>
+        <v>0.58235352533</v>
       </c>
       <c r="R7">
-        <v>0.502942027546719</v>
+        <v>5.24118172797</v>
       </c>
       <c r="S7">
-        <v>0.01001732509937028</v>
+        <v>0.01018749483673806</v>
       </c>
       <c r="T7">
-        <v>0.01001732509937028</v>
+        <v>0.01018749483673806</v>
       </c>
     </row>
   </sheetData>
